--- a/spreadsheets/datasets.xlsx
+++ b/spreadsheets/datasets.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datasets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datasets1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,1580 +534,6 @@
           <t>RGB_S, ET</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>28</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>77K(estimated)</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DADA-2020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019_ITSC_Fang</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://github.com/JWFangit/LOTVS-DADA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>BB, TL</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>658K</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Deng et al. 2018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2018_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/traffic-eye-tracking-dataset</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>RGB_S*, ET</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DR(eye)VE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2018_PAMI_Palazzi, 2016_CVPRW_Alletto</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>http://imagelab.ing.unimore.it/dreyeve</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>RGB_S_ET, ET, PD, EV</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>on-road: directed</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>555K</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BBD-A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2018_ACCV_Xia</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://bdd-data.berkeley.edu/</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>45</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>378K (estimate)</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Taamneh et al.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2017_NatSciData_Taamneh</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://osf.io/c42cn/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>secondary tasks</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>RGB_S, ET, PS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>68</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Deng et al. 2016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2016_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>RGB_S*, ET</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>40</v>
-      </c>
-      <c r="L8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>USC Video Games</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2011_BMVC_Borji</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>http://ilab.usc.edu/borji/videos/3DDS-data.zip, http://ilab.usc.edu/borji/videos/3DDS-video.zip, http://ilab.usc.edu/borji/videos/realTagResult.zip</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>192K</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DIPLECS Sweden</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2010_ACCV_Pugeault</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://cvssp.org/data/diplecs/</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>RGB_S, ET, EV</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>159K</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Drive&amp;Act</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2019_ICCV_Martin</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.driveandact.com/</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>RGB_S</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>SM, TL</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>9.6M</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HAD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2019_CVPR_Kim</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://usa.honda-ri.com/HAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3.4M (estimate)</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BBD-X</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2018_ECCV_Kim</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://github.com/JinkyuKimUCB/BDD-X-dataset</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8.4M</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>6984</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HDD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2018_CVPR_Ramanishka</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://usa.honda-ri.com/HDD</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>BB, TL</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1.2M (estimate)</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DDD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2017_ACCV_Weng</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>http://cv.cs.nthu.edu.tw/php/callforpaper/datasets/DDD/</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>RGB_D, NIR_D</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>36</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>486K (estimate)</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2016_ACCV_Chan</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://aliensunmin.github.io/project/dashcam/</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>RGB_S</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>BB, TL</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Brain4Cars</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2015_ICCV_Jain</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://github.com/asheshjain399/ICCV2015_Brain4Cars</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2M</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DIPLECS Surrey</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2015_TranVehTech_Pugeault</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://cvssp.org/data/diplecs/</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>54K(estimate)</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>YawDD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2014_ACM_Abtahi</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://ieee-dataport.org/open-access/yawdd-yawning-detection-dataset</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>RGB_D</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>TL, BB</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>on-road: stationary</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>107</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>KITTI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2013_CVPR_Geiger, Geiger2012CVPR</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>http://www.cvlibs.net/datasets/kitti/</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>SM, BB, TL</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>on-road: directed</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EOR-FOT</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2013_TechRep_Karlsson</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2014-2015</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET, EV</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>euroFOT</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2012_TechRep_Kessler</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2008-2012</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://www.eurofot-ip.eu</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>100-Car</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2005_TechRep_Neale</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2002-2004</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://www.vtti.vt.edu/facilities/data-center.html</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>241</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>RDCW FOT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2006_TechRep_LeBlanc</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2001-2005</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>RGB_S,RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>89</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SHRP2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2014_TechRep_Dingus</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2010-2013</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://insight.shrp2nds.us/login/auth</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>RGB_S,RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>3092</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>NDS/FOT</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>IVBSS FOT</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2011_TechRep_Sayer</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2009-1010</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://www.its.dot.gov/research_archives/ivbss/</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>RGB_S,RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>108</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Purpose</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Annotations</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Recording conditions</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle control</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>videos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eye-tracking</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Deng et al. 2020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2020_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/CDNN-traffic-saliency</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>

--- a/spreadsheets/datasets.xlsx
+++ b/spreadsheets/datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,65 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Dataset link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Venue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Purpose</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Annotations</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Recording conditions</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Vehicle control</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>subjects</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>frames</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>videos</t>
         </is>
@@ -513,47 +523,57 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>https://github.com/taodeng/CDNN-traffic-saliency</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2020_T-ITS_Deng</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>2020</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/CDNN-traffic-saliency</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>RGB_S, ET</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>28</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>77K(estimated)</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -570,51 +590,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>https://github.com/JWFangit/LOTVS-DADA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>2019_ITSC_Fang</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ITSC.2019.8917218</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>2019</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://github.com/JWFangit/LOTVS-DADA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>hazard perception</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>RGB_S, ET</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>BB, TL</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>20</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>658K</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -631,45 +661,55 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2018_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>https://github.com/taodeng/traffic-eye-tracking-dataset</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2018_T-ITS_Deng</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/TITS.2017.2766216</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2018</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/traffic-eye-tracking-dataset</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>RGB_S*, ET</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>20</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>100</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -688,47 +728,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2018_PAMI_Palazzi, 2016_CVPRW_Alletto</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+          <t>http://imagelab.ing.unimore.it/dreyeve</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2018_PAMI_Palazzi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PAMI, CVPRW</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>2018</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>http://imagelab.ing.unimore.it/dreyeve</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>RGB_S_ET, ET, PD, EV</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>on-road: directed</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>555K</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>74</v>
       </c>
     </row>
@@ -745,47 +795,57 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>https://bdd-data.berkeley.edu/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>2018_ACCV_Xia</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://bdd-data.berkeley.edu/</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>hazard perception</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>RGB_S, ET</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>45</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>378K (estimate)</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1232</v>
       </c>
     </row>
@@ -802,47 +862,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>https://osf.io/c42cn/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>2017_NatSciData_Taamneh</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/sdata.2017.110</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scientific Data</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2017</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://osf.io/c42cn/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>secondary tasks</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>RGB_S, ET, PS</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>68</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>456</v>
       </c>
     </row>
@@ -859,45 +929,55 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2016_TITS_Deng</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2016_T-ITS_Deng</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2016</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>RGB_S*, ET</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>40</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>100</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -912,47 +992,57 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>http://ilab.usc.edu/borji/videos/3DDS-data.zip, http://ilab.usc.edu/borji/videos/3DDS-video.zip, http://ilab.usc.edu/borji/videos/realTagResult.zip</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>2011_BMVC_Borji</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BMVC</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>http://ilab.usc.edu/borji/videos/3DDS-data.zip, http://ilab.usc.edu/borji/videos/3DDS-video.zip, http://ilab.usc.edu/borji/videos/realTagResult.zip</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>RGB_S, ET</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>10</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>192K</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>108</v>
       </c>
     </row>
@@ -969,53 +1059,63 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>https://cvssp.org/data/diplecs/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>2010_ACCV_Pugeault</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-15567-3_12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2010</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://cvssp.org/data/diplecs/</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>RGB_S, ET, EV</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>active</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>159K</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>159K</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1025,57 +1125,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Drive&amp;Act</t>
+          <t>VADD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019_ICCV_Martin</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+          <t>https://github.com/epan-utbm/VADD-Saliency-Dataset</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021_T-ITS_Lateef</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.driveandact.com/</t>
+          <t>https://doi.org/10.1109/TITS.2021.3053178</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>RGB_S</t>
-        </is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2021</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SM, TL</t>
+          <t>normal driving</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.6M</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11K</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1086,59 +1196,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HAD</t>
+          <t>LISA v3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2019_CVPR_Kim</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+          <t>https://github.com/arangesh/GPCycleGAN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020_IV_Rangesh</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://usa.honda-ri.com/HAD</t>
+          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2020</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>driver monitoring</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
+          <t>RGB, NIR</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>on-road: directed</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.4M (estimate)</t>
+          <t>active</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5675</v>
+        <v>13</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.4M</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1149,59 +1265,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BBD-X</t>
+          <t>DGAZE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2018_ECCV_Kim</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2018</v>
+          <t>https://github.com/duaisha/DGAZE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020_IROS_Dua</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://github.com/JinkyuKimUCB/BDD-X-dataset</t>
+          <t>http://cdn.iiit.ac.in/cdn/cvit.iiit.ac.in/images/ConferencePapers/2020/DGAZE_Driver.pdf</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>IROS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>RGB_S, RGB_D</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8.4M</t>
-        </is>
-      </c>
       <c r="M13" t="n">
-        <v>6984</v>
+        <v>20</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>100K</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1212,59 +1336,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>Driver Gaze in the Wild</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2018_CVPR_Ramanishka</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2018</v>
+          <t>https://sites.google.com/view/drivergazeprediction/home</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020_arXiv_Ghosh</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://usa.honda-ri.com/HDD</t>
+          <t>https://arxiv.org/pdf/2004.05973.pdf</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>RGB_S, EV</t>
-        </is>
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2020</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BB, TL</t>
+          <t>driver monitoring</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>simulator: low</t>
+          <t>RGB_D</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>on-road: stationary</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1.2M (estimate)</t>
-        </is>
-      </c>
       <c r="M14" t="n">
-        <v>137</v>
+        <v>338</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>586</v>
       </c>
     </row>
     <row r="15">
@@ -1275,57 +1407,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DDD</t>
+          <t>Drive&amp;Act</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2017_ACCV_Weng</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2017</v>
+          <t>https://www.driveandact.com/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2019_ICCV_Martin</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://cv.cs.nthu.edu.tw/php/callforpaper/datasets/DDD/</t>
+          <t>https://openaccess.thecvf.com/content_ICCV_2019/papers/Martin_DriveAct_A_Multi-Modal_Dataset_for_Fine-Grained_Driver_Behavior_Recognition_in_ICCV_2019_paper.pdf</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>ICCV</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>driver monitoring</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>RGB_D, NIR_D</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>RGB_S</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SM, TL</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>36</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>486K (estimate)</t>
-        </is>
-      </c>
       <c r="M15" t="n">
-        <v>360</v>
+        <v>15</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9.6M</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1336,59 +1478,69 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>HAD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2016_ACCV_Chan</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2016</v>
+          <t>https://usa.honda-ri.com/HAD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019_CVPR_Kim</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://aliensunmin.github.io/project/dashcam/</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>RGB_S</t>
-        </is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2019</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BB, TL</t>
+          <t>normal driving</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>RGB_S, EV</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>678</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3.4M (estimate)</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>5675</v>
       </c>
     </row>
     <row r="17">
@@ -1399,59 +1551,69 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brain4Cars</t>
+          <t>BBD-X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2015_ICCV_Jain</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2016</v>
+          <t>https://github.com/JinkyuKimUCB/BDD-X-dataset</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2018_ECCV_Kim</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://github.com/asheshjain399/ICCV2015_Brain4Cars</t>
+          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, EV</t>
-        </is>
+          <t>ECCV</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2018</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>normal driving</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>RGB_S, EV</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>10</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>simulator: low</t>
+        </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2M</t>
+          <t>passive</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>8.4M</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>6984</v>
       </c>
     </row>
     <row r="18">
@@ -1462,53 +1624,69 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DIPLECS Surrey</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2015_TranVehTech_Pugeault</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2015</v>
+          <t>https://usa.honda-ri.com/HDD</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2018_CVPR_Ramanishka</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://cvssp.org/data/diplecs/</t>
+          <t>https://openaccess.thecvf.com/content_cvpr_2018/papers/Ramanishka_Toward_Driving_Scene_CVPR_2018_paper.pdf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>RGB_S, EV</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
+          <t>BB, TL</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>simulator: low</t>
+        </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>54K(estimate)</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
+          <t>passive</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.2M (estimate)</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -1519,57 +1697,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YawDD</t>
+          <t>DDD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2014_ACM_Abtahi</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2014</v>
+          <t>http://cv.cs.nthu.edu.tw/php/callforpaper/datasets/DDD/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2017_ACCV_Weng</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://ieee-dataport.org/open-access/yawdd-yawning-detection-dataset</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>driver monitoring</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>RGB_D</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>TL, BB</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>on-road: stationary</t>
+          <t>RGB_D, NIR_D</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>107</v>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>simulator: low</t>
+        </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>active</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>342</v>
+        <v>36</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>486K (estimate)</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="20">
@@ -1580,119 +1768,139 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KITTI</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2013_CVPR_Geiger, Geiger2012CVPR</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2012</v>
+          <t>https://aliensunmin.github.io/project/dashcam/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2016_ACCV_Chan</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.cvlibs.net/datasets/kitti/</t>
+          <t>https://doi.org/10.1007/978-3-319-54190-7_9</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>RGB_D, EV</t>
-        </is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2016</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SM, BB, TL</t>
+          <t>hazard perception</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>on-road: directed</t>
+          <t>RGB_S</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>BB, TL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>simulator: low</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>passive</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EOR-FOT</t>
+          <t>Brain4Cars</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2013_TechRep_Karlsson</t>
+          <t>https://github.com/asheshjain399/ICCV2015_Brain4Cars</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2014-2015</t>
+          <t>2015_ICCV_Jain</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://openaccess.thecvf.com/content_iccv_2015/papers/Jain_Car_That_Knows_ICCV_2015_paper.pdf</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>ICCV</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>driver monitoring</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET, EV</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
+          <t>RGB_S, RGB_D, EV</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>10</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2M</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1701,181 +1909,211 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>euroFOT</t>
+          <t>DIPLECS Surrey</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2012_TechRep_Kessler</t>
+          <t>https://cvssp.org/data/diplecs/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2008-2012</t>
+          <t>2015_TranVehTech_Pugeault</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.eurofot-ip.eu</t>
+          <t>https://doi.org/10.1109/TVT.2015.2487826</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>IEEE Trans Vehicular Technology</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
+          <t>RGB_S, EV</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>54K(estimate)</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100-Car</t>
+          <t>YawDD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2005_TechRep_Neale</t>
+          <t>https://ieee-dataport.org/open-access/yawdd-yawning-detection-dataset</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2014_ACM_Abtahi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.vtti.vt.edu/facilities/data-center.html</t>
+          <t>https://doi.org/10.1145/2557642.2563678</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>RGB_S, RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>ACM Multimedia Conference</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>driver monitoring</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>on-road: naturalistic</t>
+          <t>RGB_D</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>241</v>
+          <t>TL, BB</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>on-road: stationary</t>
+        </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>passive</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>107</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RDCW FOT</t>
+          <t>KITTI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2006_TechRep_LeBlanc</t>
+          <t>http://www.cvlibs.net/datasets/kitti/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2001-2005</t>
+          <t>2013_CVPR_Geiger</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://doi.org/10.1109/CVPR.2012.6248074</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>RGB_S,RGB_D, ET</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>on-road: naturalistic</t>
+          <t>RGB_D, EV</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>SM, BB, TL</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>on-road: directed</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>89</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1889,54 +2127,64 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SHRP2</t>
+          <t>EOR-FOT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2014_TechRep_Dingus</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2013_TechRep_Karlsson</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://insight.shrp2nds.us/login/auth</t>
+          <t>https://www.vinnova.se/globalassets/mikrosajter/ffi/dokument/slutrapporter-ffi/trafiksakerhet-och-automatiserade-fordon-rapporter/2013-01303eng.pdf</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>normal driving</t>
+          <t>Tech report</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>RGB_S,RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>2014-2015</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>driver monitoring</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>RGB_S, RGB_D, ET, EV</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>3092</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1950,54 +2198,348 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>euroFOT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.eurofot-ip.eu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2012_TechRep_Kessler</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://research.chalmers.se/publication/171349/file/171349_Fulltext.pdf</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2008-2012</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>normal driving</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>RGB_S, RGB_D, ET</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NDS/FOT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>100-Car</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.vtti.vt.edu/facilities/data-center.html</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2005_TechRep_Neale</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/100car_esv05summary.pdf</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2002-2004</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>normal driving</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>RGB_S, RGB_D, ET</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>241</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NDS/FOT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RDCW FOT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2006_TechRep_LeBlanc</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://deepblue.lib.umich.edu/bitstream/handle/2027.42/49244/99789.pdf?sequence=1&amp;isAllowed=y</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2001-2005</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>normal driving</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>RGB_S,RGB_D, ET</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>89</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NDS/FOT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SHRP2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://insight.shrp2nds.us/login/auth</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2014_TechRep_Dingus</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://dx.doi.org/10.17226/22362</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2010-2013</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>normal driving</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>RGB_S,RGB_D, EV</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3092</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NDS/FOT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>IVBSS FOT</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.its.dot.gov/research_archives/ivbss/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>2011_TechRep_Sayer</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/811482.pdf</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2009-1010</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://www.its.dot.gov/research_archives/ivbss/</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>normal driving</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>RGB_S,RGB_D, EV</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="M30" t="n">
         <v>108</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/spreadsheets/datasets.xlsx
+++ b/spreadsheets/datasets.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DADA-2020</t>
+          <t>DADA-2000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/spreadsheets/datasets.xlsx
+++ b/spreadsheets/datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,75 +436,95 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>Dataset link</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dataset link</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Reference link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reference link</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Driver inattention</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Hazards</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Video</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Eye-tracking</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle data</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Physiological signal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Annotations</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Recording conditions</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Eye-tracker type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Vehicle control</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subjects</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>frames</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>videos</t>
         </is>
@@ -513,676 +533,724 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>TrafficSaliency</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deng et al. 2020</t>
+          <t>https://github.com/taodeng/CDNN-traffic-saliency</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://github.com/taodeng/CDNN-traffic-saliency</t>
+          <t>2020_T-ITS_Deng</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020_T-ITS_Deng</t>
+          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>2020</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>28</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>77K(estimated)</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>DADA-2000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DADA-2000</t>
+          <t>https://github.com/JWFangit/LOTVS-DADA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://github.com/JWFangit/LOTVS-DADA</t>
+          <t>2019_ITSC_Fang</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2019_ITSC_Fang</t>
+          <t>https://doi.org/10.1109/ITSC.2019.8917218</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2019.8917218</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>ITSC</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>2019</v>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>hazard perception</t>
+          <t>+</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RGB_S, ET</t>
+          <t>S_RGB</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>BB, TL</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>20</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>658K</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>PRORETA 4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deng et al. 2018</t>
+          <t>https://www.proreta.tu-darmstadt.de/proreta_1_4/proreta4_1/datasets_1/index.en.jsp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://github.com/taodeng/traffic-eye-tracking-dataset</t>
+          <t>2019_IV_Schwehr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Deng</t>
+          <t>https://doi.org/10.1109/IVS.2019.8814224</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2017.2766216</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RGB_S*, ET</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N4" t="n">
-        <v>100</v>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>on-road: directed</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>head-mounted</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>DR(eye)VE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DR(eye)VE</t>
+          <t>http://imagelab.ing.unimore.it/dreyeve</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://imagelab.ing.unimore.it/dreyeve</t>
+          <t>2018_PAMI_Palazzi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018_PAMI_Palazzi</t>
+          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>PAMI, CVPRW</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>2018</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RGB_S_ET, ET, PD, EV</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>on-road: directed</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>head-mounted</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>555K</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>BBD-A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBD-A</t>
+          <t>https://bdd-data.berkeley.edu/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://bdd-data.berkeley.edu/</t>
+          <t>2018_ACCV_Xia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018_ACCV_Xia</t>
+          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>ACCV</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>2018</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hazard perception</t>
+          <t>+</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>45</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>378K (estimate)</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>1232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>C42CN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Taamneh et al.</t>
+          <t>https://osf.io/c42cn/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://osf.io/c42cn/</t>
+          <t>2017_NatSciData_Taamneh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2017_NatSciData_Taamneh</t>
+          <t>https://doi.org/10.1038/sdata.2017.110</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/sdata.2017.110</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>Scientific Data</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>2017</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>secondary tasks</t>
+          <t>+</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RGB_S, ET, PS</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>68</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>TETD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deng et al. 2016</t>
+          <t>https://github.com/taodeng/traffic-eye-tracking-dataset</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
+          <t>2016_T-ITS_Deng</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Deng</t>
+          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>2016</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RGB_S*, ET</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>40</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" t="n">
         <v>100</v>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>USC Video Games</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USC Video Games</t>
+          <t>http://ilab.usc.edu/borji/videos/3DDS-data.zip, http://ilab.usc.edu/borji/videos/3DDS-video.zip, http://ilab.usc.edu/borji/videos/realTagResult.zip</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://ilab.usc.edu/borji/videos/3DDS-data.zip, http://ilab.usc.edu/borji/videos/3DDS-video.zip, http://ilab.usc.edu/borji/videos/realTagResult.zip</t>
+          <t>2011_BMVC_Borji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2011_BMVC_Borji</t>
+          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>BMVC</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>2011</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RGB_S, ET</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>10</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>192K</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eye-tracking</t>
+          <t>VADD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DIPLECS Sweden</t>
+          <t>https://github.com/epan-utbm/VADD-Saliency-Dataset</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://cvssp.org/data/diplecs/</t>
+          <t>2021_T-ITS_Lateef</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2010_ACCV_Pugeault</t>
+          <t>https://doi.org/10.1109/TITS.2021.3053178</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-15567-3_12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ACCV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2010</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RGB_S, ET, EV</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>159K</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>11K</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LISA v2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VADD</t>
+          <t>https://github.com/arangesh/GPCycleGAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://github.com/epan-utbm/VADD-Saliency-Dataset</t>
+          <t>2020_IV_Rangesh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021_T-ITS_Lateef</t>
+          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2021.3053178</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RGB</t>
+          <t>D_RGB, D_IR</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11K</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+          <t>on-road: directed</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3.4M</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1191,1000 +1259,992 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DGAZE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LISA v3</t>
+          <t>https://github.com/duaisha/DGAZE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://github.com/arangesh/GPCycleGAN</t>
+          <t>2020_IROS_Dua</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020_IV_Rangesh</t>
+          <t>http://cdn.iiit.ac.in/cdn/cvit.iiit.ac.in/images/ConferencePapers/2020/DGAZE_Driver.pdf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+          <t>IROS</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>2020</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>RGB, NIR</t>
+          <t>D_RGB, S_RGB</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>on-road: directed</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>13</v>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.4M</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>simulator: low</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>100K</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DGW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DGAZE</t>
+          <t>https://sites.google.com/view/drivergazeprediction/home</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://github.com/duaisha/DGAZE</t>
+          <t>2020_arXiv_Ghosh</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020_IROS_Dua</t>
+          <t>https://arxiv.org/pdf/2004.05973.pdf</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://cdn.iiit.ac.in/cdn/cvit.iiit.ac.in/images/ConferencePapers/2020/DGAZE_Driver.pdf</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>IROS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>2020</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>RGB_S, RGB_D</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>simulator: low</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>20</v>
+          <t>D_RGB</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100K</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>20</v>
+          <t>on-road: stationary</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>338</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DMD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Driver Gaze in the Wild</t>
+          <t>https://dmd.vicomtech.org/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://sites.google.com/view/drivergazeprediction/home</t>
+          <t>2020_ECCVW_Ortega</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020_arXiv_Ghosh</t>
+          <t>https://doi.org/10.1007/978-3-030-66823-5_23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/2004.05973.pdf</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+          <t>ECCVW</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>2020</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RGB_D</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>on-road: stationary</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>338</v>
+          <t>D_RGBD, D_IR, D_RGB</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>TL, BB</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>586</v>
+          <t>on-road: directed, simulator: low</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>37</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>4.4M (estimated)</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DGAZE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Drive&amp;Act</t>
+          <t>https://github.com/duaisha/DGAZE,http://cvit.iiit.ac.in/research/projects/cvit-projects/dgaze</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.driveandact.com/</t>
+          <t>2020_IROS_Dua</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2019_ICCV_Martin</t>
+          <t>https://doi.org/10.1109/IROS45743.2020.9341782</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_ICCV_2019/papers/Martin_DriveAct_A_Multi-Modal_Dataset_for_Fine-Grained_Driver_Behavior_Recognition_in_ICCV_2019_paper.pdf</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ICCV</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+          <t>IROS</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RGB_S</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>SM, TL</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>15</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>9.6M</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>29</v>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>20</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>100K</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>NeuroIV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HAD</t>
+          <t>https://github.com/ispc-lab/NeuroIV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://usa.honda-ri.com/HAD</t>
+          <t>2020_T-ITS_Chen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2019_CVPR_Kim</t>
+          <t>https://doi.org/10.1109/TITS.2020.3022921</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+          <t>D_RGBD, D_IR, D_RGB</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>3.4M (estimate)</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>5675</v>
-      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Drive&amp;Act</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BBD-X</t>
+          <t>https://www.driveandact.com/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://github.com/JinkyuKimUCB/BDD-X-dataset</t>
+          <t>2019_ICCV_Martin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018_ECCV_Kim</t>
+          <t>https://openaccess.thecvf.com/content_ICCV_2019/papers/Martin_DriveAct_A_Multi-Modal_Dataset_for_Fine-Grained_Driver_Behavior_Recognition_in_ICCV_2019_paper.pdf</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ECCV</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>ICCV</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SM, TL</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>8.4M</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>6984</v>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>9.6M</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>HAD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>https://usa.honda-ri.com/HAD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://usa.honda-ri.com/HDD</t>
+          <t>2019_CVPR_Kim</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2018_CVPR_Ramanishka</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_cvpr_2018/papers/Ramanishka_Toward_Driving_Scene_CVPR_2018_paper.pdf</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>CVPR</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+      <c r="F18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RGB_S, EV</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>BB, TL</t>
-        </is>
-      </c>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1.2M (estimate)</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>137</v>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>3.4M (estimate)</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>5675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>RLDD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DDD</t>
+          <t>https://github.com/rezaghoddoosian/Early-Drowsiness-Detection</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://cv.cs.nthu.edu.tw/php/callforpaper/datasets/DDD/</t>
+          <t>2019_CVPRW_Ghoddoosian</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2017_ACCV_Weng</t>
+          <t>https://openaccess.thecvf.com/content_CVPRW_2019/papers/AMFG/Ghoddoosian_A_Realistic_Dataset_and_Baseline_Temporal_Model_for_Early_Drowsiness_CVPRW_2019_paper.pdf</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ACCV</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+          <t>CVRPW</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>RGB_D, NIR_D</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>D_RGB</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>36</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>486K (estimate)</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>360</v>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>60</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>3.2M (estimate)</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BBD-X</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>https://github.com/JinkyuKimUCB/BDD-X-dataset</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://aliensunmin.github.io/project/dashcam/</t>
+          <t>2018_ECCV_Kim</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2016_ACCV_Chan</t>
+          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-54190-7_9</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ACCV</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2016</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
+          <t>ECCV</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RGB_S</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>BB, TL</t>
-        </is>
-      </c>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>simulator: low</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>678</v>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>8.4M</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>6984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brain4Cars</t>
+          <t>https://usa.honda-ri.com/HDD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://github.com/asheshjain399/ICCV2015_Brain4Cars</t>
+          <t>2018_CVPR_Ramanishka</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2015_ICCV_Jain</t>
+          <t>https://openaccess.thecvf.com/content_cvpr_2018/papers/Ramanishka_Toward_Driving_Scene_CVPR_2018_paper.pdf</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_iccv_2015/papers/Jain_Car_That_Knows_ICCV_2015_paper.pdf</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ICCV</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2016</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RGB_S, RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>10</v>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>BB, TL</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2M</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>simulator: low</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1.2M (estimate)</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DDD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DIPLECS Surrey</t>
+          <t>http://cv.cs.nthu.edu.tw/php/callforpaper/datasets/DDD/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://cvssp.org/data/diplecs/</t>
+          <t>2017_ACCV_Weng</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2015_TranVehTech_Pugeault</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TVT.2015.2487826</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>IEEE Trans Vehicular Technology</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2015</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>RGB_S, EV</t>
+          <t>D_IR, D_RGB</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>54K(estimate)</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
+          <t>simulator: low</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>36</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>486K (estimate)</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DriveAHead</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>YawDD</t>
+          <t>https://cvhci.anthropomatik.kit.edu/data/DriveAHead/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://ieee-dataport.org/open-access/yawdd-yawning-detection-dataset</t>
+          <t>2017_CVPRW_Schwarz</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2014_ACM_Abtahi</t>
+          <t>https://openaccess.thecvf.com/content_cvpr_2017_workshops/w13/papers/Schwarz_DriveAHead_-_A_CVPR_2017_paper.pdf</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2557642.2563678</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ACM Multimedia Conference</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2014</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+          <t>CVPRW</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>RGB_D</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>TL, BB</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>on-road: stationary</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>107</v>
+          <t>D_IR, D_DEPTH, D_MOCAP</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Occl, TL</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>342</v>
+          <t>on-road: directed</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>20</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1M</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KITTI</t>
+          <t>https://aliensunmin.github.io/project/dashcam/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.cvlibs.net/datasets/kitti/</t>
+          <t>2016_ACCV_Chan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2013_CVPR_Geiger</t>
+          <t>https://doi.org/10.1007/978-3-319-54190-7_9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/CVPR.2012.6248074</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2012</v>
-      </c>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>normal driving</t>
+          <t>+</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>SM, BB, TL</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>on-road: directed</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
+          <t>S_RGB</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BB, TL</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>simulator: low</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>175K</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>Brain4Cars</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EOR-FOT</t>
+          <t>https://github.com/asheshjain399/ICCV2015_Brain4Cars</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2015_ICCV_Jain</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2013_TechRep_Karlsson</t>
+          <t>https://openaccess.thecvf.com/content_iccv_2015/papers/Jain_Car_That_Knows_ICCV_2015_paper.pdf</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.vinnova.se/globalassets/mikrosajter/ffi/dokument/slutrapporter-ffi/trafiksakerhet-och-automatiserade-fordon-rapporter/2013-01303eng.pdf</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Tech report</t>
-        </is>
+          <t>ICCV</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2016</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2014-2015</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RGB_S, RGB_D, ET, EV</t>
+          <t>S_RGB, D_RGB</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>10</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2M</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2193,69 +2253,75 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>DROZY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>euroFOT</t>
+          <t>http://www.drozy.ulg.ac.be/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.eurofot-ip.eu</t>
+          <t>2016_WACV_Massoz</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2012_TechRep_Kessler</t>
+          <t>https://doi.org/10.1109/WACV.2016.7477715</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://research.chalmers.se/publication/171349/file/171349_Fulltext.pdf</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tech report</t>
-        </is>
+          <t>WACV</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2016</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2008-2012</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RGB_S, RGB_D, ET</t>
+          <t>D_RGB, D_DEPTH</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1200</v>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>TL, facial landmarks</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
+          <t>simulator: low</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>14</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>500K</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2264,282 +2330,637 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>DIPLECS Surrey</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100-Car</t>
+          <t>https://cvssp.org/data/diplecs/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.vtti.vt.edu/facilities/data-center.html</t>
+          <t>2015_TranVehTech_Pugeault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2005_TechRep_Neale</t>
+          <t>https://doi.org/10.1109/TVT.2015.2487826</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/100car_esv05summary.pdf</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Tech report</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2002-2004</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>IEEE Trans Vehicular Technology</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>RGB_S, RGB_D, ET</t>
+          <t>S_RGB</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>241</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>54K(estimate)</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>YawDD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RDCW FOT</t>
+          <t>https://ieee-dataport.org/open-access/yawdd-yawning-detection-dataset</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2014_ACM_Abtahi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2006_TechRep_LeBlanc</t>
+          <t>https://doi.org/10.1145/2557642.2563678</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://deepblue.lib.umich.edu/bitstream/handle/2027.42/49244/99789.pdf?sequence=1&amp;isAllowed=y</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Tech report</t>
-        </is>
+          <t>ACM Multimedia Conference</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2014</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2001-2005</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RGB_S,RGB_D, ET</t>
+          <t>D_RGB</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>on-road: naturalistic</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>89</v>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>TL, BB</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>on-road: stationary</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>107</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>DIPLECS Sweden</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHRP2</t>
+          <t>https://cvssp.org/data/diplecs/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://insight.shrp2nds.us/login/auth</t>
+          <t>2010_ACCV_Pugeault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2014_TechRep_Dingus</t>
+          <t>https://doi.org/10.1007/978-3-642-15567-3_12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://dx.doi.org/10.17226/22362</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Tech report</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2010-2013</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>RGB_S,RGB_D, EV</t>
+          <t>S_RGB</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>3092</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>159K</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NDS/FOT</t>
+          <t>EOR-FOT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2013_TechRep_Karlsson</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.vinnova.se/globalassets/mikrosajter/ffi/dokument/slutrapporter-ffi/trafiksakerhet-och-automatiserade-fordon-rapporter/2013-01303eng.pdf</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2014-2015</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>euroFOT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.eurofot-ip.eu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2012_TechRep_Kessler</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://research.chalmers.se/publication/171349/file/171349_Fulltext.pdf</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2008-2012</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>100-Car</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.vtti.vt.edu/facilities/data-center.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2005_TechRep_Neale</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/100car_esv05summary.pdf</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2002-2004</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>241</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RDCW FOT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2006_TechRep_LeBlanc</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://deepblue.lib.umich.edu/bitstream/handle/2027.42/49244/99789.pdf?sequence=1&amp;isAllowed=y</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2001-2005</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>89</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SHRP2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://insight.shrp2nds.us/login/auth</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2014_TechRep_Dingus</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://dx.doi.org/10.17226/22362</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tech report</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2010-2013</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>on-road: naturalistic</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>3092</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>IVBSS FOT</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>https://www.its.dot.gov/research_archives/ivbss/</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>2011_TechRep_Sayer</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/811482.pdf</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Tech report</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2009-1010</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>normal driving</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>RGB_S,RGB_D, EV</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>D_RGB, S_RGB</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>on-road: naturalistic</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>108</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>-</t>
         </is>
